--- a/1612372028458_MSRA SJT questions for new quiz software.xlsx
+++ b/1612372028458_MSRA SJT questions for new quiz software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\freelancer\mahibur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\emedica-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E782A9-A968-42E4-AC16-0FBF6486D742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E4DC2-FE36-4D30-8FAA-DC62DC9EAFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80689168-FC64-4FBF-9163-86D2C8042A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="2036">
   <si>
     <t>Question type</t>
   </si>
@@ -7685,6 +7685,509 @@
   </si>
   <si>
     <t>H. Lorem ipsum dolor sit amet, consectetur adipiscing elit. Phasellus ante metus, porttitor a auctor et, mollis a eros. Proin ultrices libero pulvinar ex volutpat vehicula. Nulla non rhoncus urna, eu pellentesque nunc. Donec odio odio, consequat sit amet rutrum eget, venenatis ac nulla. Vivamus laoreet lorem id ullamcorper tempor. Aenean laoreet leo ac dignissim hendrerit. Cras vitae ligula nec quam dictum pulvinar vitae vel arcu. Duis nec ligula eget eros condimentum tincidunt.</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>You are an F2 doctor working in a stroke ward. Your shift finishes at 5pm and it is 4.50pm now and you want to leave in time to meet some friends immediately after work. The nurse in charge requests that you speak to a patient’s daughter on the ward regarding her father’s current condition. The patient lacks capacity to make medical decisions. His notes show that some years ago he designated his daughter as his guardian. 
+Rate the appropriateness of the following actions in response to this situation.
+Tidy up your work area and leave the ward at 5pm</t>
+  </si>
+  <si>
+    <t>A. Very appropriate</t>
+  </si>
+  <si>
+    <t>B. Somewhat appropriate</t>
+  </si>
+  <si>
+    <t>C. Somewhat inappropriate</t>
+  </si>
+  <si>
+    <t>*D. Inappropriate</t>
+  </si>
+  <si>
+    <t>You are an F2 doctor working in a stroke ward. Your shift finishes at 5pm and it is 4.50pm now and you want to leave in time to meet some friends immediately after work. The nurse in charge requests that you speak to a patient’s daughter on the ward regarding her father’s current condition. The patient lacks capacity to make medical decisions. His notes show that some years ago he designated his daughter as his guardian. 
+Rate the appropriateness of the following actions in response to this situation. 
+Inform your friends you will be running late  and discuss her father’s condition with her and an available nurse in a quiet room.</t>
+  </si>
+  <si>
+    <t>*A. Very appropriate</t>
+  </si>
+  <si>
+    <t>D. Inappropriate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are an F2 doctor working in a stroke ward. Your shift finishes at 5pm and it is 4.50pm now and you want to leave in time to meet some friends immediately after work. The nurse in charge requests that you speak to a patient’s daughter on the ward regarding her father’s current condition. The patient lacks capacity to make medical decisions. His notes show that some years ago he designated his daughter as his guardian. 
+Rate the appropriateness of the following actions in response to this situation.
+Tell the patient’s daughter that her father is fine, and you will call them tomorrow. </t>
+  </si>
+  <si>
+    <t>You are an F2 doctor working in a stroke ward. Your shift finishes at 5pm and it is 4.50pm now and you want to leave in time to meet some friends immediately after work. The nurse in charge requests that you speak to a patient’s daughter on the ward regarding her father’s current condition. The patient lacks capacity to make medical decisions. His notes show that some years ago he designated his daughter as his guardian. 
+Rate the appropriateness of the following actions in response to this situation.
+Tell the nurse to ask the on-call doctor to speak to the patient’s daughter.</t>
+  </si>
+  <si>
+    <t>*C. Somewhat inappropriate</t>
+  </si>
+  <si>
+    <t>You are an F2 doctor working in a stroke ward. Your shift finishes at 5pm and it is 4.50pm now and you want to leave in time to meet some friends immediately after work. The nurse in charge requests that you speak to a patient’s daughter on the ward regarding her father’s current condition. The patient lacks capacity to make medical decisions. His notes show that some years ago he designated his daughter as his guardian. 
+Rate the appropriateness of the following actions in response to this situation.
+Ask the patient’s nurse to speak to the patient’s daughter after telling them what to say.</t>
+  </si>
+  <si>
+    <t>*B. Somewhat appropriate</t>
+  </si>
+  <si>
+    <t>You are an F2 working a busy shift A&amp;E.  You cared for a 19-year-old male with learning disabilities whose mother was reluctant for you to discharge despite normal investigations. You discharged the patient on the consultant’s advice with the working diagnosis of panic attacks. The next day, the mother posted on Facebook what had happened and said negative comments about you, including your incompetence as a doctor. 
+Rate the appropriateness of the following actions in response to this situation.
+Reply to her post on Facebook explaining your side of the story and asking her to remove the post immediately.</t>
+  </si>
+  <si>
+    <t>You are an F2 working a busy shift A&amp;E.  You cared for a 19-year-old male with learning disabilities whose mother was reluctant for you to discharge despite normal investigations. You discharged the patient on the consultant’s advice with the working diagnosis of panic attacks. The next day, the mother posted on Facebook what had happened and said negative comments about you, including your incompetence as a doctor. 
+Rate the appropriateness of the following actions in response to this situation.
+Ignore the Facebook post in the hope that no one replies to her Facebook post.</t>
+  </si>
+  <si>
+    <t>You are an F2 working a busy shift A&amp;E.  You cared for a 19-year-old male with learning disabilities whose mother was reluctant for you to discharge despite normal investigations. You discharged the patient on the consultant’s advice with the working diagnosis of panic attacks. The next day, the mother posted on Facebook what had happened and said negative comments about you, including your incompetence as a doctor. 
+Rate the appropriateness of the following actions in response to this situation.
+Send her a private message to remove the post immediately</t>
+  </si>
+  <si>
+    <t>You are an F2 working a busy shift A&amp;E.  You cared for a 19-year-old male with learning disabilities whose mother was reluctant for you to discharge despite normal investigations. You discharged the patient on the consultant’s advice with the working diagnosis of panic attacks. The next day, the mother posted on Facebook what had happened and said negative comments about you, including your incompetence as a doctor. 
+Rate the appropriateness of the following actions in response to this situation.
+Discuss the issue with your consultant and medical defence team</t>
+  </si>
+  <si>
+    <t>Part A. You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Rate the appropriateness of the following actions in response to this situation.
+Listen to the child and discuss your concerns  with the mother when she returns to the room.</t>
+  </si>
+  <si>
+    <t>Part A. You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Rate the appropriateness of the following actions in response to this situation.
+Listen to the child, discuss with the mother if appropriate and contact the safeguarding lead and the police.</t>
+  </si>
+  <si>
+    <t>Part A. You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Rate the appropriateness of the following actions in response to this situation.
+Listen to the child and make a note to discuss it with your trainer, but only address the suspected urine infection when the mother returns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A. You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Rate the appropriateness of the following actions in response to this situation.
+Listen to the child, manage the suspected urine infection and book another appointment with the mother to address this </t>
+  </si>
+  <si>
+    <t>Part A. You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Rate the appropriateness of the following actions in response to this situation.
+Listen to the child, discuss this with the mother and contact the safeguarding lead before letting the patient and her daughter leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference) You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Part B. When the mother returns you tell her what her daughter has told you. The mother looks annoyed and tells you that the daughter is telling lies. She says that the girl is an attention seeker and that she has not been cut, nor are there any plans to cut her. The 12-year-old is distressed and won’t speak. 
+Rate the appropriateness of the following actions in response to this situation.
+Ask the mother to leave the room so you can examine the girl’s genitals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference) You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Part B. When the mother returns you tell her what her daughter has told you. The mother looks annoyed and tells you that the daughter is telling lies. She says that the girl is an attention seeker and that she has not been cut, nor are there any plans to cut her. The 12-year-old is distressed and won’t speak. 
+Rate the appropriateness of the following actions in response to this situation.
+Explain to the mother that you have to take this disclosure seriously and that her daughter must be assessed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference) You are an F2 in General Practice. You are seeing a female patient from Somalia who is accompanied  by her 12-year-old daughter. You suspect the patient has a urinary tract infection, so she goes to the toilet to provide a urine sample. Whilst she is in the toilet, her 12-year-old daughter becomes  very anxious and admits to you she has been cut down below and is worried that her 8-year-old sister will be next. 
+Part B. When the mother returns you tell her what her daughter has told you. The mother looks annoyed and tells you that the daughter is telling lies. She says that the girl is an attention seeker and that she has not been cut, nor are there any plans to cut her. The 12-year-old is distressed and won’t speak. 
+Rate the appropriateness of the following actions in response to this situation.
+Let the mother and daughter leave but alert the safeguarding lead to put social services in touch with the family
+</t>
+  </si>
+  <si>
+    <t>You are an F1 working in the care of the elderly ward. You are part of the clinical team looking after a Mr R, a 90-year-old patient with advanced dementia, end stage heart failure and pneumonia. Mr R’s health fluctuates on a day to day basis and the consultant decides to put Mr R on the end of life care pathway,  if no improvement with antibiotics in 24 hours. However the patient’s son informs you that he is against this decision. 
+Rate the appropriateness of the following responses to say in this situation. Assume they are all said in a polite way.
+“I can imagine how difficult this is for you”</t>
+  </si>
+  <si>
+    <t>You are an F1 working in the care of the elderly ward. You are part of the clinical team looking after a Mr R, a 90-year-old patient with advanced dementia, end stage heart failure and pneumonia. Mr R’s health fluctuates on a day to day basis and the consultant decides to put Mr R on the end of life care pathway,  if no improvement with antibiotics in 24 hours. However the patient’s son informs you that he is against this decision. 
+Rate the appropriateness of the following responses to say in this situation. Assume they are all said in a polite way.
+“Your father won’t recover. It’s kinder to let nature take its course”</t>
+  </si>
+  <si>
+    <t>You are an F1 working in the care of the elderly ward. You are part of the clinical team looking after a Mr R, a 90-year-old patient with advanced dementia, end stage heart failure and pneumonia. Mr R’s health fluctuates on a day to day basis and the consultant decides to put Mr R on the end of life care pathway,  if no improvement with antibiotics in 24 hours. However the patient’s son informs you that he is against this decision. 
+Rate the appropriateness of the following responses to say in this situation. Assume they are all said in a polite way.
+“We will do everything we can to keep him comfortable”</t>
+  </si>
+  <si>
+    <t>You are an F1 working in the care of the elderly ward. You are part of the clinical team looking after a Mr R, a 90-year-old patient with advanced dementia, end stage heart failure and pneumonia. Mr R’s health fluctuates on a day to day basis and the consultant decides to put Mr R on the end of life care pathway,  if no improvement with antibiotics in 24 hours. However the patient’s son informs you that he is against this decision. 
+Rate the appropriateness of the following responses to say in this situation. Assume they are all said in a polite way.
+“What are you hoping could happen?”</t>
+  </si>
+  <si>
+    <t>You are an F1 working in the care of the elderly ward. You are part of the clinical team looking after a Mr R, a 90-year-old patient with advanced dementia, end stage heart failure and pneumonia. Mr R’s health fluctuates on a day to day basis and the consultant decides to put Mr R on the end of life care pathway,  if no improvement with antibiotics in 24 hours. However the patient’s son informs you that he is against this decision. 
+Rate the appropriateness of the following responses to say in this situation. Assume they are all said in a polite way.
+“I can’t do anything once the consultant has made a decision”</t>
+  </si>
+  <si>
+    <t>Bridget is an F2 working in the acute stroke unit. She works Monday till Friday 9am till 5pm. However she always finishes an hour late as the ward rounds finish late and the on-call is usually an hour late to start work. She refuses to leave on time as she is worried that patient safety is at risk especially when there are new admissions at 5pm but she is getting increasingly tired. 
+Rate the importance of the following considerations in the management of this situation
+Patient safety is compromised by doctors being overtired and overworked</t>
+  </si>
+  <si>
+    <t>*A. Very important</t>
+  </si>
+  <si>
+    <t>B. Important</t>
+  </si>
+  <si>
+    <t>C. Of minor importance</t>
+  </si>
+  <si>
+    <t>D. Not at all important</t>
+  </si>
+  <si>
+    <t>Bridget is an F2 working in the acute stroke unit. She works Monday till Friday 9am till 5pm. However she always finishes an hour late as the ward rounds finish late and the on-call is usually an hour late to start work. She refuses to leave on time as she is worried that patient safety is at risk especially when there are new admissions at 5pm but she is getting increasingly tired. 
+Rate the importance of the following considerations in the management of this situation
+Patient safety is compromised if there is a doctor missing when there are admissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridget is an F2 working in the acute stroke unit. She works Monday till Friday 9am till 5pm. However she always finishes an hour late as the ward rounds finish late and the on-call is usually an hour late to start work. She refuses to leave on time as she is worried that patient safety is at risk especially when there are new admissions at 5pm but she is getting increasingly tired. 
+Rate the importance of the following considerations in the management of this situation
+Bridget has been working late so is used to it </t>
+  </si>
+  <si>
+    <t>A. Very important</t>
+  </si>
+  <si>
+    <t>*D. Not at all important</t>
+  </si>
+  <si>
+    <t>Bridget is an F2 working in the acute stroke unit. She works Monday till Friday 9am till 5pm. However she always finishes an hour late as the ward rounds finish late and the on-call is usually an hour late to start work. She refuses to leave on time as she is worried that patient safety is at risk especially when there are new admissions at 5pm but she is getting increasingly tired. 
+Rate the importance of the following considerations in the management of this situation
+The on-call doctor is persistently late</t>
+  </si>
+  <si>
+    <t>Bridget is an F2 working in the acute stroke unit. She works Monday till Friday 9am till 5pm. However she always finishes an hour late as the ward rounds finish late and the on-call is usually an hour late to start work. She refuses to leave on time as she is worried that patient safety is at risk especially when there are new admissions at 5pm but she is getting increasingly tired. 
+Rate the importance of the following considerations in the management of this situation
+Bridget has chosen to work late</t>
+  </si>
+  <si>
+    <t>*B. Important</t>
+  </si>
+  <si>
+    <t>Part A. You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Rate the appropriateness of the following actions in response to this situation.
+Explore her concerns and reasons for why she does not want the husband to know.</t>
+  </si>
+  <si>
+    <t>Part A. You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Rate the appropriateness of the following actions in response to this situation.
+Explain that medical records are confidential and that receptionists aren’t allowed to disclose their contents</t>
+  </si>
+  <si>
+    <t>Part A. You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Rate the appropriateness of the following actions in response to this situation.
+Agree to the request and don’t enter the contraception on to the records</t>
+  </si>
+  <si>
+    <t>Part A. You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Rate the appropriateness of the following actions in response to this situation.
+Tell her that you are uncomfortable prescribing contraception if she and her husband are not deciding jointly</t>
+  </si>
+  <si>
+    <t>Part A. You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Rate the appropriateness of the following actions in response to this situation.
+Speak to the receptionist and strongly emphasise how important patient confidentiality is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Rate the appropriateness of the following actions in response to this situation.
+Remove the Mirena Coil as requested </t>
+  </si>
+  <si>
+    <t>Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Rate the appropriateness of the following actions in response to this situation.
+Ask Mrs A to tell you why she has changed her mind</t>
+  </si>
+  <si>
+    <t>Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Rate the appropriateness of the following actions in response to this situation.
+Ask to see husband and wife together before you remove the coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. (for reference) Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Part C. You remove the Mirena Coil as requested but Mrs A tearfully tells you she doesn’t want to get pregnant but that her husband wants a baby. He found the information leaflet which is how he knows. She asks if you can prescribe her the COCP. 
+Rate the appropriateness of the following actions in response to this situation.
+Prescribe the COCP if clinically appropriate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. (for reference) Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Part C. You remove the Mirena Coil as requested but Mrs A tearfully tells you she doesn’t want to get pregnant but that her husband wants a baby. He found the information leaflet which is how he knows. She asks if you can prescribe her the COCP. 
+Rate the appropriateness of the following actions in response to this situation.
+Recommend that the couple go to marriage counselling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part A (for reference). You are an F1 working in a sexual health clinic. Mrs A is a 28-year-old woman going to start a form of contraception; however she does not want it added on her medical record as one of the receptionists is her husband’s cousin. She does not want her husband to know she is starting contraception. 
+Part B. (for reference) Two weeks later Mrs A attends and asks you to remove the Mirena coil you fitted. She tells you that she’s changed her mind and wants to start a family after all. She seems subdued and looks like she has been crying. This time her husband is in the waiting room. 
+Part C. You remove the Mirena Coil as requested but Mrs A tearfully tells you she doesn’t want to get pregnant but that her husband wants a baby. He found the information leaflet which is how he knows. She asks if you can prescribe her the COCP. 
+Rate the appropriateness of the following actions in response to this situation.
+Tell Mrs A you’ll leave a prescription for her at the pharmacy so that her husband won’t see she has it. </t>
+  </si>
+  <si>
+    <t>Sarah Smith is an F2 in A&amp;E. She is a practicing Christian who has a conscientious objection to abortion. An 18-year-old female patient, who requested a female doctor, came to see her regarding ongoing mild lower abdominal pain and spotting five days post termination of pregnancy. Sarah is the only female doctor working that shift. 
+Rate the appropriateness of the following actions in response to this situation.
+Sarah should sensitively explain why she cannot help the patient and arrange for her to be cared from by another doctor.</t>
+  </si>
+  <si>
+    <t>Sarah Smith is an F2 in A&amp;E. She is a practicing Christian who has a conscientious objection to abortion. An 18-year-old female patient, who requested a female doctor, came to see her regarding ongoing mild lower abdominal pain and spotting five days post termination of pregnancy. Sarah is the only female doctor working that shift. 
+Rate the appropriateness of the following actions in response to this situation.
+Sarah should instruct the patient to attend her GP as she doesn’t need to be in A&amp;E</t>
+  </si>
+  <si>
+    <t>Sarah Smith is an F2 in A&amp;E. She is a practicing Christian who has a conscientious objection to abortion. An 18-year-old female patient, who requested a female doctor, came to see her regarding ongoing mild lower abdominal pain and spotting five days post termination of pregnancy. Sarah is the only female doctor working that shift. 
+Rate the appropriateness of the following actions in response to this situation.
+Sarah should reassure the patient that she will be fine and watch and wait for the next 2-3 days.</t>
+  </si>
+  <si>
+    <t>Sarah Smith is an F2 in A&amp;E. She is a practicing Christian who has a conscientious objection to abortion. An 18-year-old female patient, who requested a female doctor, came to see her regarding ongoing mild lower abdominal pain and spotting five days post termination of pregnancy. Sarah is the only female doctor working that shift. 
+Rate the appropriateness of the following actions in response to this situation.
+Sarah should assess the patient, ask her supervisor for advice, and advise the patient accordingly</t>
+  </si>
+  <si>
+    <t>Sarah Smith is an F2 in A&amp;E. She is a practicing Christian who has a conscientious objection to abortion. An 18-year-old female patient, who requested a female doctor, came to see her regarding ongoing mild lower abdominal pain and spotting five days post termination of pregnancy. Sarah is the only female doctor working that shift. 
+Rate the appropriateness of the following actions in response to this situation.
+Sarah should refuse to see the patient and ask her supervisor to see her instead.</t>
+  </si>
+  <si>
+    <t>SJT Ratings 1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+It is inappropriate to leave the ward without responding to this request – either by staying behind for a short while, asking the nurse to find someone else, or explaining to the patient’s daughter that you will speak to her later or that another doctor will speak to her. The action is clearly an attempt to avoid taking responsibility for this task.
+This scenario is connected to the Patient Focus domain - considering your willingness to spend time with patients and relatives and, to a lesser extent, Effective Team Working. In this example you are not behaving in a patient focused way and this action scores poorly as a result. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+It is inappropriate to leave the ward without responding to this request – either by staying behind for a short while, asking the nurse to find someone else, or explaining to the patient’s daughter that you will speak to her later or that another doctor will speak to her. The action is clearly an attempt to avoid taking responsibility for this task.
+This scenario is connected to the Patient Focus domain - considering your willingness to spend time with patients and relatives and, to a lesser extent, Effective Team Working. In this example you are not behaving in a patient focused way and this action scores poorly as a result. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+This response shows courtesy to both your patient, their relatives and your friends.
+This action shows you to be highly patient focused as you are not only taking time to speak with a relative but also organising a suitable environment for the conversation. The action also demonstrates effective team work as involving a nurse in the conversation may give the relative more options going forward when she wishes to discuss her father's care. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate 
+This is dishonest and unhelpful. The man would not be in hospital if there was nothing wrong with him and it is reasonable for a daughter to wish to discuss his condition and care. Dismissing a concerned relative like this so you can leave work more quickly is unprofessional and unkind.
+Not only does this action score poorly on Patient Focus but also on Commitment to Professionalism as it is essentially dishonest. A more honest response might be "I don't have time to speak with you now but I will call tomorrow" which would not demonstrate patient focus but would not compromise professional integrity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is C. Somewhat inappropriate
+This creates extra work for your colleagues. The on-call doctor is unlikely to know the patient or family and the family are unlikely to know him / her.  It does mean that this concerned relative will be able to speak to a clinician who may be able to answer in general terms.
+This action scores poorly for Patient Focus but also for Effective Team Working as you have delegated twice - once to a nurse and then onwards to the on-call doctor. Effective delegation is an important skill but here you have delegated your task to someone less equipped to do it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+This ensures that the daughter gets the information you would have given but creates a task for the nurse and shows a lack of care for the family on your part.
+This action shows some Patient Focus has you have made an effort to ensure the relative gets accurate and timely information. It scores less well for Effective Team Working as you have delegated a task which you could, and should, do yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+This goes against GMC guidance about responding to criticism in the media and could easily begin a long and unpleasant thread. Doing this in a public forum could lead to breaches of confidentiality and compromise your integrity.
+This scenario is connected to the Commitment to Professionalism and Coping with Pressure domains. This action scores poorly on Coping with Pressure as it is an inappropriate way to deal with confrontation. There is also a risk to confidentiality which means the score in Commitment to Professionalism is also low. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+Doing nothing will not resolve the situation but it also won’t make matters any worse. It’s possible that this will fade away if no-one fuels it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate 
+This goes against GMC guidance about responding to criticism and lacks sensitivity. It is unprofessional to instigate a private conversation with a patient’s carer this way
+This action scores poorly on Coping with Pressure as this is an ineffective way of dealing with confrontation. It also scores poorly on Commitment to Professionalism as there is a risk to confidentiality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+This is the appropriate response. An F2 doctor is not expected to manage this alone.
+This action scores highly on Coping with Pressure by showing good judgement and seeking support where required. It also scores highly on Commitment to Professionalism by taking responsibility for your own actions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+It is important to address this disclosure and protect these children. This approach does not reflect the seriousness of the situation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+FGM is illegal in the UK and this disclosure should be treated as all safeguarding concerns should be.
+This scores highly in the Commitment to Professionalism and Patient Focus domains as you have demonstrated ethical practice and the consideration of patient safety. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate 
+A mere note is insufficient in this situation. This disclosure must have taken courage from this child.
+This action scores poorly on Patient Focus for insufficient commitment to patient safety and also scores poorly on Effective Communication as the child has made a disclosure and you have not provided any reassurance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is C. Somewhat inappropriate
+The urine infection was the primary reason for this visit but the disclosure is more urgent and important. Delaying it puts the girl in danger.
+This action scores somewhat in the Patient Focus domain as you have taken the initiative to address the issue but have added a delay which may compromise patient safety. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+This is appropriate though it is important to consider the disclosure above any justifications or denials made by the mother.
+This action scores highly on Patient Focus and Effective Team Working as you involve the most appropriate person - the Safeguarding Lead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+As the girl is 12 she may not be able to give valid consent for this and as an F2 you are probably unqualified to do such an examination
+This action scores poorly on Coping with Pressure as you have not sought support when required and will be working outside of your expertise. It also scores poorly on Commitment to Professionalism as you are not heeding ethical practice guidelines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+Even if the child is being untruthful the disclosure must be taken seriously. It is unusual for children to entirely fabricate abuse.
+This action scores highly in the Patient Focus domain as you are prioritising patient safety and Effective Communication as you are using clear and understandable language. </t>
+  </si>
+  <si>
+    <t>The best response is C. Somewhat inappropriate
+It is unlikely this can be resolved immediately but letting the family leave without indicating that there will be further action is dishonest.
+This action scores poorly on Effective communication as there has been no reassurance of the young person nor appropriate communication with the mother. It scores somewhat on the Effective Team Working domain as there is a plan to involve the appropriate people, and in the Patient focus domain as there is some consideration of patient safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+Expressions of empathy have to be carefully constructed – ‘I understand’ is often inappropriate. However – this statement is kind and understanding.
+The scenario is mostly about Effective Communication. This action scores highly for being sensitive and appropriate for this relative. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+Expressions of empathy have to be carefully constructed – ‘I understand’ is often inappropriate. However – this statement is kind and understanding.
+The scenario is mostly about Effective Communication. This action scores highly for being sensitive and appropriate for this relative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is C. Somewhat inappropriate
+This may be true and comforting but it answers a question which this patient’s son didn't ask.
+This response scores somewhat appropriately in the Effective Communication domain for being clear and understandable, but it lacks sensitivity as it is not adapted to the needs to the relative at the time who did not ask about this information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+This may be true and comforting but it answers a question which this patient’s son didn’t ask. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+Allowing the son to express what is on their mind might reveal the motivation behind the request. Maybe another family member is travelling to say goodbye but won't be there for a little longer than 24 hours.
+This response scores highly in the Effective Communication domain as it is sensitive as well as being clear. It also scores in the Patient focus domain as it places the patient in the centre of their care. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+This isn’t strictly true as you could go and discuss the case with the consultant. It sounds like you are blaming your senior which is unhelpful.
+This response scores poorly in the Commitment to Professionalism domain for being dishonest, and in the Patient focus domain for lacking empathy and not providing appropriate reassurance. It also scores poorly in the Effective Team Work domain as it is disrespectful to misrepresent his senior colleague. </t>
+  </si>
+  <si>
+    <t>The best response is A. Very important
+All doctors know that they’ll occasionally have to work late but when it happens all the time it can lead to tiredness which can lead to safety concerns</t>
+  </si>
+  <si>
+    <t>The best response is A. Very important 
+Staffing levels are often stretched so if they are lower than they should be there is risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Not at all important
+In trying to resolve this issue it is unfair to assume Bridget is willing to continue working late just because she has been. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very important
+If the on-call doctor were on time then Bridget would feel more able to leave work on time. There may be a reason for this lateness which should be considered too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Important
+Bridget is described as refusing to leave work due to her concerns for patient safety. This may have meant other issues which might have been sorted out haven’t been as the team have become accustomed to her over time. </t>
+  </si>
+  <si>
+    <t>The best response is A. Very appropriate
+Although this is very personal it is important you ensure that the reason is not something you need to act on like domestic violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is C. Somewhat inappropriate 
+The patient probably knows this is the legal position, but she clearly doesn’t trust this family member to abide by the rules. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate 
+This could put the patient in clinical danger later on. Complete medical records are important for future clinicians to provide safe and appropriate care. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+Your comfort is irrelevant. A husband and wife are separate people and medically are treated so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+This seems unfair to a receptionist who has not done anything wrong but reiterating the message when there is a concerned family member involved might help make Mrs A feel more secure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+The patient has asked for this procedure and it is appropriate to carry it out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is A. Very appropriate
+Such a big change of mind is possible, but it is important to check she is not acting under pressure. If you sense she might be distressed then it’s important to ask about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is D. Inappropriate
+This decision is Mrs A’s alone. There is no need for you to speak to Mr A. You may find yourself getting embroiled in something beyond your remit. </t>
+  </si>
+  <si>
+    <t>The best response is A. Very appropriate
+The patient clearly wants contraception. If there are no contraindications then she should be given the COCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is C. Somewhat inappropriate 
+This may be helpful for the couple but it is not your place to recommend it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best response is B. Somewhat appropriate
+If Mrs A asks you to do this then it may be appropriate but by offering you may be seen to be doing more than providing the care requested. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Inappropriate
+Sarah can refuse to be involved in terminations but not clinically indicated care resulting from one. A delay may be dangerous, and the patient requested a female doctor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Somewhat inappropriate
+Although the symptoms sound mild and clinically non-urgent as described it cannot be certain that is the case. It is inappropriate to send her away without assessment. This also adds delay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Inappropriate 
+Sarah does not know this to be true without doing a proper assessment. </t>
+  </si>
+  <si>
+    <t>A. Appropriate
+This is the clinically appropriate course of action. Sarah cannot, and should not, refuse to give post abortion care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Somewhat inappropriate
+Sarah should not refuse to see this patient and, as the patient requested a female doctor (and Sarah is the only female doctor), this disregards this request. The patient will, at least, be assessed though. </t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>SJT Ratings 2</t>
   </si>
 </sst>
 </file>
@@ -8048,15 +8551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33336C69-615C-4359-A264-AB5ACA8B4801}">
-  <dimension ref="A1:T285"/>
+  <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
@@ -8068,7 +8571,7 @@
     <col min="14" max="14" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1009</v>
       </c>
@@ -8120,8 +8623,11 @@
       <c r="Q1" s="1" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -8159,7 +8665,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -8197,7 +8703,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8235,7 +8741,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8276,7 +8782,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8314,7 +8820,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -8352,7 +8858,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -8393,7 +8899,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -8434,7 +8940,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -8472,7 +8978,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -8510,7 +9016,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -8548,7 +9054,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -8589,7 +9095,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -8630,7 +9136,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -8671,7 +9177,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -20686,7 +21192,7 @@
       </c>
       <c r="Q272" s="1"/>
     </row>
-    <row r="273" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20737,7 +21243,7 @@
       </c>
       <c r="Q273" s="1"/>
     </row>
-    <row r="274" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20788,7 +21294,7 @@
       </c>
       <c r="Q274" s="1"/>
     </row>
-    <row r="275" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20839,7 +21345,7 @@
       </c>
       <c r="Q275" s="1"/>
     </row>
-    <row r="276" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20890,7 +21396,7 @@
       </c>
       <c r="Q276" s="1"/>
     </row>
-    <row r="277" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20941,7 +21447,7 @@
       </c>
       <c r="Q277" s="1"/>
     </row>
-    <row r="278" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1301</v>
       </c>
@@ -20992,7 +21498,7 @@
       </c>
       <c r="Q278" s="1"/>
     </row>
-    <row r="279" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21043,7 +21549,7 @@
       </c>
       <c r="Q279" s="1"/>
     </row>
-    <row r="280" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21094,7 +21600,7 @@
       </c>
       <c r="Q280" s="1"/>
     </row>
-    <row r="281" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21145,7 +21651,7 @@
       </c>
       <c r="Q281" s="1"/>
     </row>
-    <row r="282" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21196,7 +21702,7 @@
       </c>
       <c r="Q282" s="1"/>
     </row>
-    <row r="283" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21247,7 +21753,7 @@
       </c>
       <c r="Q283" s="1"/>
     </row>
-    <row r="284" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21298,7 +21804,7 @@
       </c>
       <c r="Q284" s="1"/>
     </row>
-    <row r="285" spans="1:17" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1301</v>
       </c>
@@ -21348,6 +21854,1766 @@
         <v>1738</v>
       </c>
       <c r="Q285" s="1"/>
+    </row>
+    <row r="286" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M286" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N286" t="s">
+        <v>1990</v>
+      </c>
+      <c r="O286" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P286" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M287" t="s">
+        <v>1991</v>
+      </c>
+      <c r="N287" t="s">
+        <v>1991</v>
+      </c>
+      <c r="O287" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P287" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M288" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N288" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O288" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P288" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M289" t="s">
+        <v>1993</v>
+      </c>
+      <c r="N289" t="s">
+        <v>1993</v>
+      </c>
+      <c r="O289" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P289" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B290">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M290" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="P290" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M291" t="s">
+        <v>1995</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="O291" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P291" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B292">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M292" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N292" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O292" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P292" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M293" t="s">
+        <v>1997</v>
+      </c>
+      <c r="N293" t="s">
+        <v>1997</v>
+      </c>
+      <c r="O293" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P293" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B294">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M294" t="s">
+        <v>1998</v>
+      </c>
+      <c r="N294" t="s">
+        <v>1998</v>
+      </c>
+      <c r="O294" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P294" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B295">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M295" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N295" t="s">
+        <v>1999</v>
+      </c>
+      <c r="O295" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P295" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B296">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M296" t="s">
+        <v>2000</v>
+      </c>
+      <c r="N296" t="s">
+        <v>2000</v>
+      </c>
+      <c r="O296" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P296" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M297" t="s">
+        <v>2001</v>
+      </c>
+      <c r="N297" t="s">
+        <v>2001</v>
+      </c>
+      <c r="O297" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P297" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B298">
+        <v>13</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M298" t="s">
+        <v>2002</v>
+      </c>
+      <c r="N298" t="s">
+        <v>2002</v>
+      </c>
+      <c r="O298" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P298" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B299">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M299" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N299" t="s">
+        <v>2003</v>
+      </c>
+      <c r="O299" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P299" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B300">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M300" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N300" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O300" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P300" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B301">
+        <v>16</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M301" t="s">
+        <v>2005</v>
+      </c>
+      <c r="N301" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O301" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P301" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B302">
+        <v>17</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M302" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N302" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O302" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P302" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B303">
+        <v>18</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M303" t="s">
+        <v>2007</v>
+      </c>
+      <c r="N303" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O303" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P303" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B304">
+        <v>19</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M304" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N304" t="s">
+        <v>2009</v>
+      </c>
+      <c r="O304" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P304" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B305">
+        <v>20</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M305" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N305" t="s">
+        <v>2010</v>
+      </c>
+      <c r="O305" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P305" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B306">
+        <v>21</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M306" t="s">
+        <v>2011</v>
+      </c>
+      <c r="N306" t="s">
+        <v>2011</v>
+      </c>
+      <c r="O306" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P306" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B307">
+        <v>22</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M307" t="s">
+        <v>2012</v>
+      </c>
+      <c r="N307" t="s">
+        <v>2012</v>
+      </c>
+      <c r="O307" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P307" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M308" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N308" t="s">
+        <v>2013</v>
+      </c>
+      <c r="O308" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P308" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M309" t="s">
+        <v>2014</v>
+      </c>
+      <c r="N309" t="s">
+        <v>2014</v>
+      </c>
+      <c r="O309" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P309" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="M310" t="s">
+        <v>2015</v>
+      </c>
+      <c r="N310" t="s">
+        <v>2015</v>
+      </c>
+      <c r="O310" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P310" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M311" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N311" t="s">
+        <v>2016</v>
+      </c>
+      <c r="O311" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P311" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M312" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N312" t="s">
+        <v>2017</v>
+      </c>
+      <c r="O312" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P312" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B313">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M313" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N313" t="s">
+        <v>2018</v>
+      </c>
+      <c r="O313" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P313" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B314">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M314" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N314" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O314" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P314" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B315">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M315" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N315" t="s">
+        <v>2020</v>
+      </c>
+      <c r="O315" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P315" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B316">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M316" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N316" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O316" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P316" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B317">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M317" t="s">
+        <v>2022</v>
+      </c>
+      <c r="N317" t="s">
+        <v>2022</v>
+      </c>
+      <c r="O317" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P317" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B318">
+        <v>11</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M318" t="s">
+        <v>2023</v>
+      </c>
+      <c r="N318" t="s">
+        <v>2023</v>
+      </c>
+      <c r="O318" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P318" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B319">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M319" t="s">
+        <v>2024</v>
+      </c>
+      <c r="N319" t="s">
+        <v>2024</v>
+      </c>
+      <c r="O319" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P319" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B320">
+        <v>13</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M320" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N320" t="s">
+        <v>2025</v>
+      </c>
+      <c r="O320" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P320" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B321">
+        <v>14</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M321" t="s">
+        <v>2026</v>
+      </c>
+      <c r="N321" t="s">
+        <v>2026</v>
+      </c>
+      <c r="O321" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P321" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B322">
+        <v>15</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M322" t="s">
+        <v>2027</v>
+      </c>
+      <c r="N322" t="s">
+        <v>2027</v>
+      </c>
+      <c r="O322" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P322" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M323" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N323" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O323" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P323" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B324">
+        <v>17</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M324" t="s">
+        <v>2029</v>
+      </c>
+      <c r="N324" t="s">
+        <v>2029</v>
+      </c>
+      <c r="O324" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P324" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B325">
+        <v>18</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M325" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N325" t="s">
+        <v>2030</v>
+      </c>
+      <c r="O325" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P325" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B326">
+        <v>19</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M326" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N326" t="s">
+        <v>2031</v>
+      </c>
+      <c r="O326" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P326" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B327">
+        <v>20</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M327" t="s">
+        <v>2032</v>
+      </c>
+      <c r="N327" t="s">
+        <v>2032</v>
+      </c>
+      <c r="O327" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P327" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B328">
+        <v>21</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M328" t="s">
+        <v>2033</v>
+      </c>
+      <c r="N328" t="s">
+        <v>2033</v>
+      </c>
+      <c r="O328" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P328" t="s">
+        <v>1738</v>
+      </c>
+      <c r="R328">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
